--- a/Assets/DB/Player_Status.xlsx
+++ b/Assets/DB/Player_Status.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\CapstonDesign\Assets\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E785844-62ED-4F4A-9D1B-DE5396E69830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EB8CF8-5B9C-4BF7-8596-8F05CDA16604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{6E297706-2A4A-45F9-B328-BC96A93AA48F}"/>
+    <workbookView xWindow="8145" yWindow="1530" windowWidth="17445" windowHeight="13080" xr2:uid="{6E297706-2A4A-45F9-B328-BC96A93AA48F}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -478,7 +478,7 @@
         <v>5</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="F2">
         <v>5</v>
@@ -501,7 +501,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -524,7 +524,7 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="F4">
         <v>15</v>
@@ -547,7 +547,7 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="F5">
         <v>20</v>
@@ -570,7 +570,7 @@
         <v>5</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="F6">
         <v>25</v>
@@ -593,7 +593,7 @@
         <v>5</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="F7">
         <v>30</v>
@@ -616,7 +616,7 @@
         <v>5</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>0.7</v>
       </c>
       <c r="F8">
         <v>35</v>
@@ -639,7 +639,7 @@
         <v>5</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>0.8</v>
       </c>
       <c r="F9">
         <v>40</v>
@@ -662,7 +662,7 @@
         <v>5</v>
       </c>
       <c r="E10">
-        <v>9</v>
+        <v>0.9</v>
       </c>
       <c r="F10">
         <v>45</v>
@@ -685,7 +685,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>50</v>
@@ -708,7 +708,7 @@
         <v>5</v>
       </c>
       <c r="E12">
-        <v>11</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F12">
         <v>55</v>
@@ -731,7 +731,7 @@
         <v>5</v>
       </c>
       <c r="E13">
-        <v>12</v>
+        <v>1.2</v>
       </c>
       <c r="F13">
         <v>60</v>
@@ -754,7 +754,7 @@
         <v>5</v>
       </c>
       <c r="E14">
-        <v>13</v>
+        <v>1.3</v>
       </c>
       <c r="F14">
         <v>65</v>
@@ -777,7 +777,7 @@
         <v>5</v>
       </c>
       <c r="E15">
-        <v>14</v>
+        <v>1.4</v>
       </c>
       <c r="F15">
         <v>70</v>
@@ -800,7 +800,7 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <v>15</v>
+        <v>1.5</v>
       </c>
       <c r="F16">
         <v>75</v>
@@ -823,7 +823,7 @@
         <v>5</v>
       </c>
       <c r="E17">
-        <v>16</v>
+        <v>1.6</v>
       </c>
       <c r="F17">
         <v>80</v>
@@ -846,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="E18">
-        <v>17</v>
+        <v>1.7</v>
       </c>
       <c r="F18">
         <v>85</v>
@@ -869,7 +869,7 @@
         <v>5</v>
       </c>
       <c r="E19">
-        <v>18</v>
+        <v>1.8</v>
       </c>
       <c r="F19">
         <v>90</v>
@@ -892,7 +892,7 @@
         <v>5</v>
       </c>
       <c r="E20">
-        <v>19</v>
+        <v>1.9</v>
       </c>
       <c r="F20">
         <v>95</v>
@@ -915,7 +915,7 @@
         <v>5</v>
       </c>
       <c r="E21">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>100</v>
@@ -938,7 +938,7 @@
         <v>5</v>
       </c>
       <c r="E22">
-        <v>21</v>
+        <v>2.1</v>
       </c>
       <c r="F22">
         <v>105</v>
@@ -961,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="E23">
-        <v>22</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F23">
         <v>110</v>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="E24">
-        <v>23</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F24">
         <v>115</v>
@@ -1007,7 +1007,7 @@
         <v>5</v>
       </c>
       <c r="E25">
-        <v>24</v>
+        <v>2.4</v>
       </c>
       <c r="F25">
         <v>120</v>
@@ -1030,7 +1030,7 @@
         <v>5</v>
       </c>
       <c r="E26">
-        <v>25</v>
+        <v>2.5</v>
       </c>
       <c r="F26">
         <v>125</v>
@@ -1053,7 +1053,7 @@
         <v>5</v>
       </c>
       <c r="E27">
-        <v>26</v>
+        <v>2.6</v>
       </c>
       <c r="F27">
         <v>130</v>
@@ -1076,7 +1076,7 @@
         <v>5</v>
       </c>
       <c r="E28">
-        <v>27</v>
+        <v>2.7</v>
       </c>
       <c r="F28">
         <v>135</v>
@@ -1099,7 +1099,7 @@
         <v>5</v>
       </c>
       <c r="E29">
-        <v>28</v>
+        <v>2.8</v>
       </c>
       <c r="F29">
         <v>140</v>
@@ -1122,7 +1122,7 @@
         <v>5</v>
       </c>
       <c r="E30">
-        <v>29</v>
+        <v>2.9</v>
       </c>
       <c r="F30">
         <v>145</v>
@@ -1145,7 +1145,7 @@
         <v>5</v>
       </c>
       <c r="E31">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>150</v>
